--- a/Connectors, Interconnects/USB, DVI, HDMI Connectors/Parameters.xlsx
+++ b/Connectors, Interconnects/USB, DVI, HDMI Connectors/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7582d9984df6cf93/Altium Designer Library/Connectors^J Interconnects/USB^J DVI^J HDMI Connectors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_Designer_Library\Connectors, Interconnects\USB, DVI, HDMI Connectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="11_AD4D0BC4A776854ACB15BCD6D653F8D8693EDF27" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80EE1ECD-AD5F-4F3E-B831-A38B9774BF88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5967F5E-7D82-4883-95C0-3B01615C7555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="588" windowWidth="11556" windowHeight="10476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Operating Temperature</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Number of Ports</t>
+  </si>
+  <si>
+    <t>Farnell TR Link</t>
+  </si>
+  <si>
+    <t>Mouser Link</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,6 +658,18 @@
       </c>
       <c r="B26" s="1"/>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
